--- a/Output/TwoSample.xlsx
+++ b/Output/TwoSample.xlsx
@@ -78,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:EA6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="true"/>
@@ -86,18 +86,132 @@
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="12.42578125" customWidth="true"/>
+    <col min="6" max="6" width="3.140625" customWidth="true"/>
     <col min="7" max="7" width="12.42578125" customWidth="true"/>
     <col min="8" max="8" width="12.42578125" customWidth="true"/>
     <col min="9" max="9" width="12.42578125" customWidth="true"/>
     <col min="10" max="10" width="12.42578125" customWidth="true"/>
     <col min="11" max="11" width="12.42578125" customWidth="true"/>
     <col min="12" max="12" width="12.42578125" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.42578125" customWidth="true"/>
+    <col min="14" max="14" width="15.5703125" customWidth="true"/>
+    <col min="15" max="15" width="12.42578125" customWidth="true"/>
+    <col min="16" max="16" width="12.42578125" customWidth="true"/>
+    <col min="17" max="17" width="12.42578125" customWidth="true"/>
+    <col min="18" max="18" width="12.42578125" customWidth="true"/>
+    <col min="19" max="19" width="12.42578125" customWidth="true"/>
+    <col min="20" max="20" width="12.42578125" customWidth="true"/>
+    <col min="21" max="21" width="12.42578125" customWidth="true"/>
+    <col min="22" max="22" width="16.28515625" customWidth="true"/>
+    <col min="23" max="23" width="12.42578125" customWidth="true"/>
+    <col min="24" max="24" width="12.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
+    <col min="26" max="26" width="12.42578125" customWidth="true"/>
+    <col min="27" max="27" width="12.42578125" customWidth="true"/>
+    <col min="28" max="28" width="12.42578125" customWidth="true"/>
+    <col min="29" max="29" width="12.42578125" customWidth="true"/>
+    <col min="30" max="30" width="16.28515625" customWidth="true"/>
+    <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+    <col min="33" max="33" width="11.7109375" customWidth="true"/>
+    <col min="34" max="34" width="11.7109375" customWidth="true"/>
+    <col min="35" max="35" width="11.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
+    <col min="37" max="37" width="11.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15.5703125" customWidth="true"/>
+    <col min="39" max="39" width="12.42578125" customWidth="true"/>
+    <col min="40" max="40" width="12.42578125" customWidth="true"/>
+    <col min="41" max="41" width="12.42578125" customWidth="true"/>
+    <col min="42" max="42" width="12.42578125" customWidth="true"/>
+    <col min="43" max="43" width="12.42578125" customWidth="true"/>
+    <col min="44" max="44" width="12.42578125" customWidth="true"/>
+    <col min="45" max="45" width="12.42578125" customWidth="true"/>
+    <col min="46" max="46" width="15.5703125" customWidth="true"/>
+    <col min="47" max="47" width="12.42578125" customWidth="true"/>
+    <col min="48" max="48" width="12.42578125" customWidth="true"/>
+    <col min="49" max="49" width="12.42578125" customWidth="true"/>
+    <col min="50" max="50" width="12.42578125" customWidth="true"/>
+    <col min="51" max="51" width="12.42578125" customWidth="true"/>
+    <col min="52" max="52" width="12.42578125" customWidth="true"/>
+    <col min="53" max="53" width="12.42578125" customWidth="true"/>
+    <col min="54" max="54" width="16.28515625" customWidth="true"/>
+    <col min="55" max="55" width="12.42578125" customWidth="true"/>
+    <col min="56" max="56" width="12.42578125" customWidth="true"/>
+    <col min="57" max="57" width="12.42578125" customWidth="true"/>
+    <col min="58" max="58" width="12.42578125" customWidth="true"/>
+    <col min="59" max="59" width="12.42578125" customWidth="true"/>
+    <col min="60" max="60" width="12.42578125" customWidth="true"/>
+    <col min="61" max="61" width="12.42578125" customWidth="true"/>
+    <col min="62" max="62" width="16.28515625" customWidth="true"/>
+    <col min="63" max="63" width="11.7109375" customWidth="true"/>
+    <col min="64" max="64" width="11.7109375" customWidth="true"/>
+    <col min="65" max="65" width="11.7109375" customWidth="true"/>
+    <col min="66" max="66" width="11.7109375" customWidth="true"/>
+    <col min="67" max="67" width="11.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.42578125" customWidth="true"/>
+    <col min="69" max="69" width="12.42578125" customWidth="true"/>
+    <col min="70" max="70" width="12.42578125" customWidth="true"/>
+    <col min="71" max="71" width="12.42578125" customWidth="true"/>
+    <col min="72" max="72" width="12.42578125" customWidth="true"/>
+    <col min="73" max="73" width="12.42578125" customWidth="true"/>
+    <col min="74" max="74" width="12.42578125" customWidth="true"/>
+    <col min="75" max="75" width="12.42578125" customWidth="true"/>
+    <col min="76" max="76" width="12.42578125" customWidth="true"/>
+    <col min="77" max="77" width="12.42578125" customWidth="true"/>
+    <col min="78" max="78" width="12.42578125" customWidth="true"/>
+    <col min="79" max="79" width="12.42578125" customWidth="true"/>
+    <col min="80" max="80" width="12.42578125" customWidth="true"/>
+    <col min="81" max="81" width="12.42578125" customWidth="true"/>
+    <col min="82" max="82" width="12.42578125" customWidth="true"/>
+    <col min="83" max="83" width="11.7109375" customWidth="true"/>
+    <col min="84" max="84" width="12.42578125" customWidth="true"/>
+    <col min="85" max="85" width="12.42578125" customWidth="true"/>
+    <col min="86" max="86" width="11.7109375" customWidth="true"/>
+    <col min="87" max="87" width="11.7109375" customWidth="true"/>
+    <col min="88" max="88" width="12.42578125" customWidth="true"/>
+    <col min="89" max="89" width="12.42578125" customWidth="true"/>
+    <col min="90" max="90" width="11.7109375" customWidth="true"/>
+    <col min="91" max="91" width="11.7109375" customWidth="true"/>
+    <col min="92" max="92" width="11.7109375" customWidth="true"/>
+    <col min="93" max="93" width="11.7109375" customWidth="true"/>
+    <col min="94" max="94" width="11.7109375" customWidth="true"/>
+    <col min="95" max="95" width="11.7109375" customWidth="true"/>
+    <col min="96" max="96" width="11.7109375" customWidth="true"/>
+    <col min="97" max="97" width="11.7109375" customWidth="true"/>
+    <col min="98" max="98" width="11.7109375" customWidth="true"/>
+    <col min="99" max="99" width="12.42578125" customWidth="true"/>
+    <col min="100" max="100" width="12.42578125" customWidth="true"/>
+    <col min="101" max="101" width="12.42578125" customWidth="true"/>
+    <col min="102" max="102" width="12.42578125" customWidth="true"/>
+    <col min="103" max="103" width="12.42578125" customWidth="true"/>
+    <col min="104" max="104" width="12.42578125" customWidth="true"/>
+    <col min="105" max="105" width="12.42578125" customWidth="true"/>
+    <col min="106" max="106" width="12.42578125" customWidth="true"/>
+    <col min="107" max="107" width="12.42578125" customWidth="true"/>
+    <col min="108" max="108" width="12.42578125" customWidth="true"/>
+    <col min="109" max="109" width="12.42578125" customWidth="true"/>
+    <col min="110" max="110" width="12.42578125" customWidth="true"/>
+    <col min="111" max="111" width="12.42578125" customWidth="true"/>
+    <col min="112" max="112" width="12.42578125" customWidth="true"/>
+    <col min="113" max="113" width="12.42578125" customWidth="true"/>
+    <col min="114" max="114" width="12.42578125" customWidth="true"/>
+    <col min="115" max="115" width="12.42578125" customWidth="true"/>
+    <col min="116" max="116" width="12.42578125" customWidth="true"/>
+    <col min="117" max="117" width="11.7109375" customWidth="true"/>
+    <col min="118" max="118" width="12.42578125" customWidth="true"/>
+    <col min="119" max="119" width="12.42578125" customWidth="true"/>
+    <col min="120" max="120" width="12.42578125" customWidth="true"/>
+    <col min="121" max="121" width="12.42578125" customWidth="true"/>
+    <col min="122" max="122" width="12.42578125" customWidth="true"/>
+    <col min="123" max="123" width="11.7109375" customWidth="true"/>
+    <col min="124" max="124" width="11.7109375" customWidth="true"/>
+    <col min="125" max="125" width="11.7109375" customWidth="true"/>
+    <col min="126" max="126" width="11.7109375" customWidth="true"/>
+    <col min="127" max="127" width="11.7109375" customWidth="true"/>
+    <col min="128" max="128" width="11.7109375" customWidth="true"/>
+    <col min="129" max="129" width="11.7109375" customWidth="true"/>
+    <col min="130" max="130" width="11.7109375" customWidth="true"/>
+    <col min="131" max="131" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -152,58 +266,742 @@
       <c r="Q1" s="0">
         <v>15</v>
       </c>
+      <c r="R1" s="0">
+        <v>16</v>
+      </c>
+      <c r="S1" s="0">
+        <v>17</v>
+      </c>
+      <c r="T1" s="0">
+        <v>18</v>
+      </c>
+      <c r="U1" s="0">
+        <v>19</v>
+      </c>
+      <c r="V1" s="0">
+        <v>20</v>
+      </c>
+      <c r="W1" s="0">
+        <v>21</v>
+      </c>
+      <c r="X1" s="0">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="0">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="0">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="0">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="0">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="0">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="0">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="0">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="0">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="0">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="0">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="0">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="0">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="0">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="0">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="0">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="0">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="0">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="0">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="0">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="0">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="0">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="0">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="0">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="0">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="0">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="0">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="0">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="0">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="0">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="0">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="0">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="0">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="0">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="0">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="0">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="0">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="0">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="0">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="0">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="0">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="0">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="0">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="0">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="0">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="0">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="0">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="0">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="0">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="0">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="0">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="0">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="0">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="0">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="0">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="0">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="0">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="0">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="0">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="0">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="0">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="0">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="0">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="0">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="0">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="0">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="0">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="0">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="0">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="0">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="0">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="0">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="0">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="0">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="0">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="0">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="0">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="0">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="0">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="0">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="0">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="0">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="0">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="0">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="0">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="0">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="0">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="0">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="0">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="0">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="0">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="0">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="0">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="0">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="0">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="0">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="0">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="0">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="0">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="0">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="0">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="0">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="0">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="0">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="0">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="0">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="0">
+        <v>128</v>
+      </c>
+      <c r="EA1" s="0">
+        <v>129</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>45</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="C2" s="0">
-        <v>71.400000000000006</v>
+        <v>9.9776353476305424</v>
       </c>
       <c r="D2" s="0">
-        <v>86.930000000000007</v>
+        <v>11.08655439013544</v>
       </c>
       <c r="E2" s="0">
-        <v>89.230000000000004</v>
+        <v>11.769423364838765</v>
       </c>
       <c r="F2" s="0">
-        <v>77.939999999999998</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0">
-        <v>54.780000000000001</v>
+        <v>11.769423364838765</v>
       </c>
       <c r="H2" s="0">
-        <v>23.289999999999999</v>
+        <v>11.08655439013544</v>
       </c>
       <c r="I2" s="0">
-        <v>-11.74</v>
+        <v>9.9776353476305442</v>
       </c>
       <c r="J2" s="0">
-        <v>-45</v>
+        <v>8.4852813742385713</v>
       </c>
       <c r="K2" s="0">
-        <v>-71.400000000000006</v>
+        <v>6.6668427962352261</v>
       </c>
       <c r="L2" s="0">
-        <v>-86.930000000000007</v>
+        <v>4.5922011883810789</v>
       </c>
       <c r="M2" s="0">
-        <v>-89.230000000000004</v>
+        <v>2.3410838641935432</v>
       </c>
       <c r="N2" s="0">
-        <v>-77.939999999999998</v>
+        <v>1.4695761589768238e-15</v>
       </c>
       <c r="O2" s="0">
-        <v>-54.780000000000001</v>
+        <v>-2.3410838641935401</v>
       </c>
       <c r="P2" s="0">
-        <v>-23.289999999999999</v>
+        <v>-4.5922011883810763</v>
       </c>
       <c r="Q2" s="0">
-        <v>11.74</v>
+        <v>-6.6668427962352235</v>
+      </c>
+      <c r="R2" s="0">
+        <v>-8.4852813742385695</v>
+      </c>
+      <c r="S2" s="0">
+        <v>-9.9776353476305424</v>
+      </c>
+      <c r="T2" s="0">
+        <v>-11.086554390135438</v>
+      </c>
+      <c r="U2" s="0">
+        <v>-11.769423364838763</v>
+      </c>
+      <c r="V2" s="0">
+        <v>-12</v>
+      </c>
+      <c r="W2" s="0">
+        <v>-11.769423364838765</v>
+      </c>
+      <c r="X2" s="0">
+        <v>-11.086554390135444</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>-9.9776353476305459</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>-8.4852813742385713</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>-6.6668427962352261</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>-4.5922011883810745</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>-2.3410838641935445</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>-2.9391523179536475e-15</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>2.3410838641935392</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>4.5922011883810692</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>6.6668427962352226</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>8.4852813742385678</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>9.9776353476305424</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>11.086554390135442</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>11.769423364838763</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>11.769423364838763</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>11.08655439013544</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>9.9776353476305459</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>8.4852813742385802</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>6.6668427962352457</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>4.5922011883810665</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>2.3410838641935356</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>4.4087284769304716e-15</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>-2.3410838641935268</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>-4.5922011883810576</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>-6.6668427962352386</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>-8.4852813742385749</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>-9.9776353476305424</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>-11.086554390135436</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>-11.769423364838762</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>-12</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>-11.769423364838763</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>-11.08655439013544</v>
+      </c>
+      <c r="BE2" s="0">
+        <v>-9.9776353476305459</v>
+      </c>
+      <c r="BF2" s="0">
+        <v>-8.485281374238582</v>
+      </c>
+      <c r="BG2" s="0">
+        <v>-6.6668427962352474</v>
+      </c>
+      <c r="BH2" s="0">
+        <v>-4.5922011883810683</v>
+      </c>
+      <c r="BI2" s="0">
+        <v>-2.341083864193537</v>
+      </c>
+      <c r="BJ2" s="0">
+        <v>-5.878304635907295e-15</v>
+      </c>
+      <c r="BK2" s="0">
+        <v>2.3410838641935259</v>
+      </c>
+      <c r="BL2" s="0">
+        <v>4.5922011883810567</v>
+      </c>
+      <c r="BM2" s="0">
+        <v>6.6668427962352368</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>8.4852813742385731</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>216.9615506024416</v>
+      </c>
+      <c r="BP2" s="0">
+        <v>205.63538588866822</v>
+      </c>
+      <c r="BQ2" s="0">
+        <v>187.17526542690123</v>
+      </c>
+      <c r="BR2" s="0">
+        <v>162.26116064347025</v>
+      </c>
+      <c r="BS2" s="0">
+        <v>131.82219381635772</v>
+      </c>
+      <c r="BT2" s="0">
+        <v>97.000889219720762</v>
+      </c>
+      <c r="BU2" s="0">
+        <v>59.109225004626467</v>
+      </c>
+      <c r="BV2" s="0">
+        <v>19.578174654165913</v>
+      </c>
+      <c r="BW2" s="0">
+        <v>-20.097322954453166</v>
+      </c>
+      <c r="BX2" s="0">
+        <v>-58.415850169827756</v>
+      </c>
+      <c r="BY2" s="0">
+        <v>-93.927244746130199</v>
+      </c>
+      <c r="BZ2" s="0">
+        <v>-125.28836294481647</v>
+      </c>
+      <c r="CA2" s="0">
+        <v>-151.3147286657065</v>
+      </c>
+      <c r="CB2" s="0">
+        <v>-171.02608381045553</v>
+      </c>
+      <c r="CC2" s="0">
+        <v>-183.68408945173698</v>
+      </c>
+      <c r="CD2" s="0">
+        <v>-188.82072901973885</v>
+      </c>
+      <c r="CE2" s="0">
+        <v>-186.25632203206183</v>
+      </c>
+      <c r="CF2" s="0">
+        <v>-176.10645615238758</v>
+      </c>
+      <c r="CG2" s="0">
+        <v>-158.77757122405316</v>
+      </c>
+      <c r="CH2" s="0">
+        <v>-134.95136502132647</v>
+      </c>
+      <c r="CI2" s="0">
+        <v>-105.55862003477702</v>
+      </c>
+      <c r="CJ2" s="0">
+        <v>-71.743457149403923</v>
+      </c>
+      <c r="CK2" s="0">
+        <v>-34.819389961915491</v>
+      </c>
+      <c r="CL2" s="0">
+        <v>3.7811314209554219</v>
+      </c>
+      <c r="CM2" s="0">
+        <v>42.561748066921965</v>
+      </c>
+      <c r="CN2" s="0">
+        <v>80.019676670957892</v>
+      </c>
+      <c r="CO2" s="0">
+        <v>114.70344165098128</v>
+      </c>
+      <c r="CP2" s="0">
+        <v>145.26863624531546</v>
+      </c>
+      <c r="CQ2" s="0">
+        <v>170.5295697163042</v>
+      </c>
+      <c r="CR2" s="0">
+        <v>189.50481586015746</v>
+      </c>
+      <c r="CS2" s="0">
+        <v>201.45491239352026</v>
+      </c>
+      <c r="CT2" s="0">
+        <v>205.91076242564594</v>
+      </c>
+      <c r="CU2" s="0">
+        <v>202.69164653964543</v>
+      </c>
+      <c r="CV2" s="0">
+        <v>191.91215326566601</v>
+      </c>
+      <c r="CW2" s="0">
+        <v>173.97776158971507</v>
+      </c>
+      <c r="CX2" s="0">
+        <v>149.56924523859686</v>
+      </c>
+      <c r="CY2" s="0">
+        <v>119.61649805511968</v>
+      </c>
+      <c r="CZ2" s="0">
+        <v>85.262786320083094</v>
+      </c>
+      <c r="DA2" s="0">
+        <v>47.820801765367726</v>
+      </c>
+      <c r="DB2" s="0">
+        <v>8.7222041180262586</v>
+      </c>
+      <c r="DC2" s="0">
+        <v>-30.537407790363996</v>
+      </c>
+      <c r="DD2" s="0">
+        <v>-68.455981636486356</v>
+      </c>
+      <c r="DE2" s="0">
+        <v>-103.58274481649883</v>
+      </c>
+      <c r="DF2" s="0">
+        <v>-134.57396661629053</v>
+      </c>
+      <c r="DG2" s="0">
+        <v>-160.24460644679581</v>
+      </c>
+      <c r="DH2" s="0">
+        <v>-179.61386334601434</v>
+      </c>
+      <c r="DI2" s="0">
+        <v>-191.94287631974328</v>
+      </c>
+      <c r="DJ2" s="0">
+        <v>-196.76312673136286</v>
+      </c>
+      <c r="DK2" s="0">
+        <v>-193.89445126554307</v>
+      </c>
+      <c r="DL2" s="0">
+        <v>-183.45197325007422</v>
+      </c>
+      <c r="DM2" s="0">
+        <v>-165.84168598083031</v>
+      </c>
+      <c r="DN2" s="0">
+        <v>-141.74485779158127</v>
+      </c>
+      <c r="DO2" s="0">
+        <v>-112.0918581840053</v>
+      </c>
+      <c r="DP2" s="0">
+        <v>-78.026410875566938</v>
+      </c>
+      <c r="DQ2" s="0">
+        <v>-40.861647510688265</v>
+      </c>
+      <c r="DR2" s="0">
+        <v>-2.0296508761786072</v>
+      </c>
+      <c r="DS2" s="0">
+        <v>36.973573343792808</v>
+      </c>
+      <c r="DT2" s="0">
+        <v>74.645581559595414</v>
+      </c>
+      <c r="DU2" s="0">
+        <v>109.53522489025049</v>
+      </c>
+      <c r="DV2" s="0">
+        <v>140.29841075946104</v>
+      </c>
+      <c r="DW2" s="0">
+        <v>165.74975057869815</v>
+      </c>
+      <c r="DX2" s="0">
+        <v>184.90810871814807</v>
+      </c>
+      <c r="DY2" s="0">
+        <v>197.03430233671733</v>
+      </c>
+      <c r="DZ2" s="0">
+        <v>201.65950328065614</v>
+      </c>
+      <c r="EA2" s="0">
+        <v>198.60325057491963</v>
       </c>
     </row>
     <row r="3">
@@ -211,52 +1009,394 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>45</v>
+        <v>8.4852813742385695</v>
       </c>
       <c r="C3" s="0">
-        <v>71.400000000000006</v>
+        <v>9.9776353476305424</v>
       </c>
       <c r="D3" s="0">
-        <v>86.930000000000007</v>
+        <v>11.08655439013544</v>
       </c>
       <c r="E3" s="0">
-        <v>89.230000000000004</v>
+        <v>11.769423364838765</v>
       </c>
       <c r="F3" s="0">
-        <v>77.939999999999998</v>
+        <v>12</v>
       </c>
       <c r="G3" s="0">
-        <v>54.780000000000001</v>
+        <v>11.769423364838765</v>
       </c>
       <c r="H3" s="0">
-        <v>23.289999999999999</v>
+        <v>11.08655439013544</v>
       </c>
       <c r="I3" s="0">
-        <v>-11.74</v>
+        <v>9.9776353476305442</v>
       </c>
       <c r="J3" s="0">
-        <v>-45</v>
+        <v>8.4852813742385713</v>
       </c>
       <c r="K3" s="0">
-        <v>-71.400000000000006</v>
+        <v>6.6668427962352261</v>
       </c>
       <c r="L3" s="0">
-        <v>-86.930000000000007</v>
+        <v>4.5922011883810789</v>
       </c>
       <c r="M3" s="0">
-        <v>-89.230000000000004</v>
+        <v>2.3410838641935432</v>
       </c>
       <c r="N3" s="0">
-        <v>-77.939999999999998</v>
+        <v>1.4695761589768238e-15</v>
       </c>
       <c r="O3" s="0">
-        <v>-54.780000000000001</v>
+        <v>-2.3410838641935401</v>
       </c>
       <c r="P3" s="0">
-        <v>-23.289999999999999</v>
+        <v>-4.5922011883810763</v>
       </c>
       <c r="Q3" s="0">
-        <v>11.74</v>
+        <v>-6.6668427962352235</v>
+      </c>
+      <c r="R3" s="0">
+        <v>-8.4852813742385695</v>
+      </c>
+      <c r="S3" s="0">
+        <v>-9.9776353476305424</v>
+      </c>
+      <c r="T3" s="0">
+        <v>-11.086554390135438</v>
+      </c>
+      <c r="U3" s="0">
+        <v>-11.769423364838763</v>
+      </c>
+      <c r="V3" s="0">
+        <v>-12</v>
+      </c>
+      <c r="W3" s="0">
+        <v>-11.769423364838765</v>
+      </c>
+      <c r="X3" s="0">
+        <v>-11.086554390135444</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>-9.9776353476305459</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>-8.4852813742385713</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>-6.6668427962352261</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>-4.5922011883810745</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>-2.3410838641935445</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>-2.9391523179536475e-15</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>2.3410838641935392</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>4.5922011883810692</v>
+      </c>
+      <c r="AG3" s="0">
+        <v>6.6668427962352226</v>
+      </c>
+      <c r="AH3" s="0">
+        <v>8.4852813742385678</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>9.9776353476305424</v>
+      </c>
+      <c r="AJ3" s="0">
+        <v>11.086554390135442</v>
+      </c>
+      <c r="AK3" s="0">
+        <v>11.769423364838763</v>
+      </c>
+      <c r="AL3" s="0">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>11.769423364838763</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>11.08655439013544</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>9.9776353476305459</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>8.4852813742385802</v>
+      </c>
+      <c r="AQ3" s="0">
+        <v>6.6668427962352457</v>
+      </c>
+      <c r="AR3" s="0">
+        <v>4.5922011883810665</v>
+      </c>
+      <c r="AS3" s="0">
+        <v>2.3410838641935356</v>
+      </c>
+      <c r="AT3" s="0">
+        <v>4.4087284769304716e-15</v>
+      </c>
+      <c r="AU3" s="0">
+        <v>-2.3410838641935268</v>
+      </c>
+      <c r="AV3" s="0">
+        <v>-4.5922011883810576</v>
+      </c>
+      <c r="AW3" s="0">
+        <v>-6.6668427962352386</v>
+      </c>
+      <c r="AX3" s="0">
+        <v>-8.4852813742385749</v>
+      </c>
+      <c r="AY3" s="0">
+        <v>-9.9776353476305424</v>
+      </c>
+      <c r="AZ3" s="0">
+        <v>-11.086554390135436</v>
+      </c>
+      <c r="BA3" s="0">
+        <v>-11.769423364838762</v>
+      </c>
+      <c r="BB3" s="0">
+        <v>-12</v>
+      </c>
+      <c r="BC3" s="0">
+        <v>-11.769423364838763</v>
+      </c>
+      <c r="BD3" s="0">
+        <v>-11.08655439013544</v>
+      </c>
+      <c r="BE3" s="0">
+        <v>-9.9776353476305459</v>
+      </c>
+      <c r="BF3" s="0">
+        <v>-8.485281374238582</v>
+      </c>
+      <c r="BG3" s="0">
+        <v>-6.6668427962352474</v>
+      </c>
+      <c r="BH3" s="0">
+        <v>-4.5922011883810683</v>
+      </c>
+      <c r="BI3" s="0">
+        <v>-2.341083864193537</v>
+      </c>
+      <c r="BJ3" s="0">
+        <v>-5.878304635907295e-15</v>
+      </c>
+      <c r="BK3" s="0">
+        <v>2.3410838641935259</v>
+      </c>
+      <c r="BL3" s="0">
+        <v>4.5922011883810567</v>
+      </c>
+      <c r="BM3" s="0">
+        <v>6.6668427962352368</v>
+      </c>
+      <c r="BN3" s="0">
+        <v>8.4852813742385731</v>
+      </c>
+      <c r="BO3" s="0">
+        <v>216.9615506024416</v>
+      </c>
+      <c r="BP3" s="0">
+        <v>205.63538588866822</v>
+      </c>
+      <c r="BQ3" s="0">
+        <v>187.17526542690123</v>
+      </c>
+      <c r="BR3" s="0">
+        <v>162.26116064347025</v>
+      </c>
+      <c r="BS3" s="0">
+        <v>131.82219381635772</v>
+      </c>
+      <c r="BT3" s="0">
+        <v>97.000889219720762</v>
+      </c>
+      <c r="BU3" s="0">
+        <v>59.109225004626467</v>
+      </c>
+      <c r="BV3" s="0">
+        <v>19.578174654165913</v>
+      </c>
+      <c r="BW3" s="0">
+        <v>-20.097322954453166</v>
+      </c>
+      <c r="BX3" s="0">
+        <v>-58.415850169827756</v>
+      </c>
+      <c r="BY3" s="0">
+        <v>-93.927244746130199</v>
+      </c>
+      <c r="BZ3" s="0">
+        <v>-125.28836294481647</v>
+      </c>
+      <c r="CA3" s="0">
+        <v>-151.3147286657065</v>
+      </c>
+      <c r="CB3" s="0">
+        <v>-171.02608381045553</v>
+      </c>
+      <c r="CC3" s="0">
+        <v>-183.68408945173698</v>
+      </c>
+      <c r="CD3" s="0">
+        <v>-188.82072901973885</v>
+      </c>
+      <c r="CE3" s="0">
+        <v>-186.25632203206183</v>
+      </c>
+      <c r="CF3" s="0">
+        <v>-176.10645615238758</v>
+      </c>
+      <c r="CG3" s="0">
+        <v>-158.77757122405316</v>
+      </c>
+      <c r="CH3" s="0">
+        <v>-134.95136502132647</v>
+      </c>
+      <c r="CI3" s="0">
+        <v>-105.55862003477702</v>
+      </c>
+      <c r="CJ3" s="0">
+        <v>-71.743457149403923</v>
+      </c>
+      <c r="CK3" s="0">
+        <v>-34.819389961915491</v>
+      </c>
+      <c r="CL3" s="0">
+        <v>3.7811314209554219</v>
+      </c>
+      <c r="CM3" s="0">
+        <v>42.561748066921965</v>
+      </c>
+      <c r="CN3" s="0">
+        <v>80.019676670957892</v>
+      </c>
+      <c r="CO3" s="0">
+        <v>114.70344165098128</v>
+      </c>
+      <c r="CP3" s="0">
+        <v>145.26863624531546</v>
+      </c>
+      <c r="CQ3" s="0">
+        <v>170.5295697163042</v>
+      </c>
+      <c r="CR3" s="0">
+        <v>189.50481586015746</v>
+      </c>
+      <c r="CS3" s="0">
+        <v>201.45491239352026</v>
+      </c>
+      <c r="CT3" s="0">
+        <v>205.91076242564594</v>
+      </c>
+      <c r="CU3" s="0">
+        <v>202.69164653964543</v>
+      </c>
+      <c r="CV3" s="0">
+        <v>191.91215326566601</v>
+      </c>
+      <c r="CW3" s="0">
+        <v>173.97776158971507</v>
+      </c>
+      <c r="CX3" s="0">
+        <v>149.56924523859686</v>
+      </c>
+      <c r="CY3" s="0">
+        <v>119.61649805511968</v>
+      </c>
+      <c r="CZ3" s="0">
+        <v>85.262786320083094</v>
+      </c>
+      <c r="DA3" s="0">
+        <v>47.820801765367726</v>
+      </c>
+      <c r="DB3" s="0">
+        <v>8.7222041180262586</v>
+      </c>
+      <c r="DC3" s="0">
+        <v>-30.537407790363996</v>
+      </c>
+      <c r="DD3" s="0">
+        <v>-68.455981636486356</v>
+      </c>
+      <c r="DE3" s="0">
+        <v>-103.58274481649883</v>
+      </c>
+      <c r="DF3" s="0">
+        <v>-134.57396661629053</v>
+      </c>
+      <c r="DG3" s="0">
+        <v>-160.24460644679581</v>
+      </c>
+      <c r="DH3" s="0">
+        <v>-179.61386334601434</v>
+      </c>
+      <c r="DI3" s="0">
+        <v>-191.94287631974328</v>
+      </c>
+      <c r="DJ3" s="0">
+        <v>-196.76312673136286</v>
+      </c>
+      <c r="DK3" s="0">
+        <v>-193.89445126554307</v>
+      </c>
+      <c r="DL3" s="0">
+        <v>-183.45197325007422</v>
+      </c>
+      <c r="DM3" s="0">
+        <v>-165.84168598083031</v>
+      </c>
+      <c r="DN3" s="0">
+        <v>-141.74485779158127</v>
+      </c>
+      <c r="DO3" s="0">
+        <v>-112.0918581840053</v>
+      </c>
+      <c r="DP3" s="0">
+        <v>-78.026410875566938</v>
+      </c>
+      <c r="DQ3" s="0">
+        <v>-40.861647510688265</v>
+      </c>
+      <c r="DR3" s="0">
+        <v>-2.0296508761786072</v>
+      </c>
+      <c r="DS3" s="0">
+        <v>36.973573343792808</v>
+      </c>
+      <c r="DT3" s="0">
+        <v>74.645581559595414</v>
+      </c>
+      <c r="DU3" s="0">
+        <v>109.53522489025049</v>
+      </c>
+      <c r="DV3" s="0">
+        <v>140.29841075946104</v>
+      </c>
+      <c r="DW3" s="0">
+        <v>165.74975057869815</v>
+      </c>
+      <c r="DX3" s="0">
+        <v>184.90810871814807</v>
+      </c>
+      <c r="DY3" s="0">
+        <v>197.03430233671733</v>
+      </c>
+      <c r="DZ3" s="0">
+        <v>201.65950328065614</v>
+      </c>
+      <c r="EA3" s="0">
+        <v>198.60325057491963</v>
       </c>
     </row>
     <row r="4">
@@ -264,52 +1404,394 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>108.63961030678927</v>
+        <v>42.658390154509455</v>
       </c>
       <c r="C4" s="0">
-        <v>54.784181514565113</v>
+        <v>6.6668427962352315</v>
       </c>
       <c r="D4" s="0">
-        <v>23.290393592746568</v>
+        <v>4.5922011883810692</v>
       </c>
       <c r="E4" s="0">
-        <v>-11.738760902855573</v>
+        <v>2.3410838641935423</v>
       </c>
       <c r="F4" s="0">
-        <v>-45.005421660479129</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>-71.416416018131414</v>
+        <v>-2.3410838641935423</v>
       </c>
       <c r="H4" s="0">
-        <v>-86.920004564186428</v>
+        <v>-4.5922011883810878</v>
       </c>
       <c r="I4" s="0">
-        <v>-89.202570126201763</v>
+        <v>-6.6668427962352128</v>
       </c>
       <c r="J4" s="0">
-        <v>-77.961511891491938</v>
+        <v>-8.4852813742385713</v>
       </c>
       <c r="K4" s="0">
-        <v>-54.784181514565113</v>
+        <v>-9.9776353476305513</v>
       </c>
       <c r="L4" s="0">
-        <v>-23.290393592746568</v>
+        <v>-11.086554390135431</v>
       </c>
       <c r="M4" s="0">
-        <v>11.738760902855573</v>
+        <v>-11.769423364838755</v>
       </c>
       <c r="N4" s="0">
-        <v>45.005421660479129</v>
+        <v>-12.000000000000014</v>
       </c>
       <c r="O4" s="0">
-        <v>71.416416018131414</v>
+        <v>-11.769423364838778</v>
       </c>
       <c r="P4" s="0">
-        <v>86.920004564186428</v>
+        <v>-11.086554390135431</v>
       </c>
       <c r="Q4" s="0">
-        <v>89.202570126201763</v>
+        <v>-9.9776353476305335</v>
+      </c>
+      <c r="R4" s="0">
+        <v>-8.4852813742385855</v>
+      </c>
+      <c r="S4" s="0">
+        <v>-6.6668427962352315</v>
+      </c>
+      <c r="T4" s="0">
+        <v>-4.5922011883810603</v>
+      </c>
+      <c r="U4" s="0">
+        <v>-2.3410838641935423</v>
+      </c>
+      <c r="V4" s="0">
+        <v>-9.1053047688003601e-15</v>
+      </c>
+      <c r="W4" s="0">
+        <v>2.3410838641935423</v>
+      </c>
+      <c r="X4" s="0">
+        <v>4.5922011883810692</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>6.6668427962352217</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>8.4852813742385802</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>9.9776353476305513</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>11.086554390135454</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>11.769423364838726</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>12.000000000000014</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>11.769423364838783</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>11.086554390135399</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>9.9776353476305655</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>8.4852813742385802</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>6.6668427962352403</v>
+      </c>
+      <c r="AJ4" s="0">
+        <v>4.592201188381078</v>
+      </c>
+      <c r="AK4" s="0">
+        <v>2.3410838641935241</v>
+      </c>
+      <c r="AL4" s="0">
+        <v>9.1053047688003601e-15</v>
+      </c>
+      <c r="AM4" s="0">
+        <v>-2.3410838641935512</v>
+      </c>
+      <c r="AN4" s="0">
+        <v>-4.592201188381078</v>
+      </c>
+      <c r="AO4" s="0">
+        <v>-6.6668427962352039</v>
+      </c>
+      <c r="AP4" s="0">
+        <v>-8.4852813742385358</v>
+      </c>
+      <c r="AQ4" s="0">
+        <v>-9.9776353476305015</v>
+      </c>
+      <c r="AR4" s="0">
+        <v>-11.086554390135596</v>
+      </c>
+      <c r="AS4" s="0">
+        <v>-11.76942336483873</v>
+      </c>
+      <c r="AT4" s="0">
+        <v>-11.999999999999961</v>
+      </c>
+      <c r="AU4" s="0">
+        <v>-11.769423364838728</v>
+      </c>
+      <c r="AV4" s="0">
+        <v>-11.08655439013541</v>
+      </c>
+      <c r="AW4" s="0">
+        <v>-9.9776353476307023</v>
+      </c>
+      <c r="AX4" s="0">
+        <v>-8.4852813742385358</v>
+      </c>
+      <c r="AY4" s="0">
+        <v>-6.6668427962352039</v>
+      </c>
+      <c r="AZ4" s="0">
+        <v>-4.5922011883810603</v>
+      </c>
+      <c r="BA4" s="0">
+        <v>-2.3410838641935423</v>
+      </c>
+      <c r="BB4" s="0">
+        <v>-1.821060953760072e-14</v>
+      </c>
+      <c r="BC4" s="0">
+        <v>2.3410838641935512</v>
+      </c>
+      <c r="BD4" s="0">
+        <v>4.592201188381078</v>
+      </c>
+      <c r="BE4" s="0">
+        <v>6.6668427962352039</v>
+      </c>
+      <c r="BF4" s="0">
+        <v>8.4852813742385251</v>
+      </c>
+      <c r="BG4" s="0">
+        <v>9.9776353476305015</v>
+      </c>
+      <c r="BH4" s="0">
+        <v>11.086554390135596</v>
+      </c>
+      <c r="BI4" s="0">
+        <v>11.769423364838731</v>
+      </c>
+      <c r="BJ4" s="0">
+        <v>11.999999999999961</v>
+      </c>
+      <c r="BK4" s="0">
+        <v>11.76942336483873</v>
+      </c>
+      <c r="BL4" s="0">
+        <v>11.08655439013541</v>
+      </c>
+      <c r="BM4" s="0">
+        <v>9.9776353476306969</v>
+      </c>
+      <c r="BN4" s="0">
+        <v>8.4852813742385358</v>
+      </c>
+      <c r="BO4" s="0">
+        <v>1047.2452541915768</v>
+      </c>
+      <c r="BP4" s="0">
+        <v>-78.309322753256083</v>
+      </c>
+      <c r="BQ4" s="0">
+        <v>-113.05861036290858</v>
+      </c>
+      <c r="BR4" s="0">
+        <v>-143.6868174543493</v>
+      </c>
+      <c r="BS4" s="0">
+        <v>-169.00834945158905</v>
+      </c>
+      <c r="BT4" s="0">
+        <v>-188.04187262860953</v>
+      </c>
+      <c r="BU4" s="0">
+        <v>-200.04801363705849</v>
+      </c>
+      <c r="BV4" s="0">
+        <v>-204.55776111414576</v>
+      </c>
+      <c r="BW4" s="0">
+        <v>-201.39047789441582</v>
+      </c>
+      <c r="BX4" s="0">
+        <v>-190.66083160844553</v>
+      </c>
+      <c r="BY4" s="0">
+        <v>-172.77437731238075</v>
+      </c>
+      <c r="BZ4" s="0">
+        <v>-148.41196188896396</v>
+      </c>
+      <c r="CA4" s="0">
+        <v>-118.50354953438421</v>
+      </c>
+      <c r="CB4" s="0">
+        <v>-84.192474187620874</v>
+      </c>
+      <c r="CC4" s="0">
+        <v>-46.791492646794282</v>
+      </c>
+      <c r="CD4" s="0">
+        <v>-7.7323272125476077</v>
+      </c>
+      <c r="CE4" s="0">
+        <v>31.489363107109142</v>
+      </c>
+      <c r="CF4" s="0">
+        <v>69.371468117748677</v>
+      </c>
+      <c r="CG4" s="0">
+        <v>104.46315956142557</v>
+      </c>
+      <c r="CH4" s="0">
+        <v>135.42065320200084</v>
+      </c>
+      <c r="CI4" s="0">
+        <v>161.05885697877943</v>
+      </c>
+      <c r="CJ4" s="0">
+        <v>180.39692042997532</v>
+      </c>
+      <c r="CK4" s="0">
+        <v>192.69593495790818</v>
+      </c>
+      <c r="CL4" s="0">
+        <v>197.48733614614463</v>
+      </c>
+      <c r="CM4" s="0">
+        <v>194.59091665333293</v>
+      </c>
+      <c r="CN4" s="0">
+        <v>184.12175746785505</v>
+      </c>
+      <c r="CO4" s="0">
+        <v>166.48581116817388</v>
+      </c>
+      <c r="CP4" s="0">
+        <v>142.36430693050602</v>
+      </c>
+      <c r="CQ4" s="0">
+        <v>112.68757659908285</v>
+      </c>
+      <c r="CR4" s="0">
+        <v>78.599307676550083</v>
+      </c>
+      <c r="CS4" s="0">
+        <v>41.412596979883098</v>
+      </c>
+      <c r="CT4" s="0">
+        <v>2.5594938026632432</v>
+      </c>
+      <c r="CU4" s="0">
+        <v>-36.464028381065638</v>
+      </c>
+      <c r="CV4" s="0">
+        <v>-74.155556957845789</v>
+      </c>
+      <c r="CW4" s="0">
+        <v>-109.06397283619188</v>
+      </c>
+      <c r="CX4" s="0">
+        <v>-139.84521208808533</v>
+      </c>
+      <c r="CY4" s="0">
+        <v>-165.31391367577737</v>
+      </c>
+      <c r="CZ4" s="0">
+        <v>-184.4889684647749</v>
+      </c>
+      <c r="DA4" s="0">
+        <v>-196.63121909429364</v>
+      </c>
+      <c r="DB4" s="0">
+        <v>-201.27186191475437</v>
+      </c>
+      <c r="DC4" s="0">
+        <v>-198.23045951653665</v>
+      </c>
+      <c r="DD4" s="0">
+        <v>-187.62187163353829</v>
+      </c>
+      <c r="DE4" s="0">
+        <v>-169.85183806585906</v>
+      </c>
+      <c r="DF4" s="0">
+        <v>-145.60138336276029</v>
+      </c>
+      <c r="DG4" s="0">
+        <v>-115.80064258065931</v>
+      </c>
+      <c r="DH4" s="0">
+        <v>-81.593113973211004</v>
+      </c>
+      <c r="DI4" s="0">
+        <v>-44.291712358408589</v>
+      </c>
+      <c r="DJ4" s="0">
+        <v>-5.3283120031288638</v>
+      </c>
+      <c r="DK4" s="0">
+        <v>33.801281940123872</v>
+      </c>
+      <c r="DL4" s="0">
+        <v>71.594818731133202</v>
+      </c>
+      <c r="DM4" s="0">
+        <v>106.6013349503918</v>
+      </c>
+      <c r="DN4" s="0">
+        <v>137.47691637815319</v>
+      </c>
+      <c r="DO4" s="0">
+        <v>163.03634594971348</v>
+      </c>
+      <c r="DP4" s="0">
+        <v>182.29865298809932</v>
+      </c>
+      <c r="DQ4" s="0">
+        <v>194.5248132858238</v>
+      </c>
+      <c r="DR4" s="0">
+        <v>199.24615124558193</v>
+      </c>
+      <c r="DS4" s="0">
+        <v>196.28235260442162</v>
+      </c>
+      <c r="DT4" s="0">
+        <v>185.74839552523466</v>
+      </c>
+      <c r="DU4" s="0">
+        <v>168.0501337001713</v>
+      </c>
+      <c r="DV4" s="0">
+        <v>143.86870120740667</v>
+      </c>
+      <c r="DW4" s="0">
+        <v>114.13433843628665</v>
+      </c>
+      <c r="DX4" s="0">
+        <v>79.99064493815132</v>
+      </c>
+      <c r="DY4" s="0">
+        <v>42.750632948028105</v>
+      </c>
+      <c r="DZ4" s="0">
+        <v>3.8462704178382063</v>
+      </c>
+      <c r="EA4" s="0">
+        <v>-35.226547403886222</v>
       </c>
     </row>
     <row r="5">
@@ -317,52 +1799,394 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>117.59066683887387</v>
+        <v>43.494117424938622</v>
       </c>
       <c r="C5" s="0">
-        <v>89.995925153424693</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="D5" s="0">
-        <v>89.995929539646696</v>
+        <v>11.999999999999995</v>
       </c>
       <c r="E5" s="0">
-        <v>89.998841145508152</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="F5" s="0">
-        <v>90.000730990573203</v>
+        <v>12</v>
       </c>
       <c r="G5" s="0">
-        <v>90.006404643640877</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="H5" s="0">
-        <v>89.986172790258109</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="I5" s="0">
-        <v>89.971807346078933</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="J5" s="0">
-        <v>90.016650328743282</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="K5" s="0">
-        <v>89.995925153424693</v>
+        <v>12.000000000000007</v>
       </c>
       <c r="L5" s="0">
-        <v>89.995929539646696</v>
+        <v>11.999999999999991</v>
       </c>
       <c r="M5" s="0">
-        <v>89.998841145508152</v>
+        <v>11.999999999999991</v>
       </c>
       <c r="N5" s="0">
-        <v>90.000730990573203</v>
+        <v>12.000000000000014</v>
       </c>
       <c r="O5" s="0">
-        <v>90.006404643640877</v>
+        <v>12.000000000000012</v>
       </c>
       <c r="P5" s="0">
-        <v>89.986172790258109</v>
+        <v>11.999999999999991</v>
       </c>
       <c r="Q5" s="0">
-        <v>89.971807346078933</v>
+        <v>11.999999999999991</v>
+      </c>
+      <c r="R5" s="0">
+        <v>12.000000000000009</v>
+      </c>
+      <c r="S5" s="0">
+        <v>12.000000000000002</v>
+      </c>
+      <c r="T5" s="0">
+        <v>11.999999999999991</v>
+      </c>
+      <c r="U5" s="0">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="V5" s="0">
+        <v>12</v>
+      </c>
+      <c r="W5" s="0">
+        <v>12.000000000000002</v>
+      </c>
+      <c r="X5" s="0">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="0">
+        <v>12.000000000000007</v>
+      </c>
+      <c r="AA5" s="0">
+        <v>12.000000000000007</v>
+      </c>
+      <c r="AB5" s="0">
+        <v>12.000000000000012</v>
+      </c>
+      <c r="AC5" s="0">
+        <v>11.999999999999963</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>12.000000000000014</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>12.000000000000016</v>
+      </c>
+      <c r="AF5" s="0">
+        <v>11.999999999999959</v>
+      </c>
+      <c r="AG5" s="0">
+        <v>12.000000000000016</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>12.000000000000005</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>12.000000000000007</v>
+      </c>
+      <c r="AJ5" s="0">
+        <v>12.000000000000002</v>
+      </c>
+      <c r="AK5" s="0">
+        <v>11.999999999999995</v>
+      </c>
+      <c r="AL5" s="0">
+        <v>12</v>
+      </c>
+      <c r="AM5" s="0">
+        <v>12</v>
+      </c>
+      <c r="AN5" s="0">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="AO5" s="0">
+        <v>11.999999999999991</v>
+      </c>
+      <c r="AP5" s="0">
+        <v>11.999999999999984</v>
+      </c>
+      <c r="AQ5" s="0">
+        <v>11.999999999999977</v>
+      </c>
+      <c r="AR5" s="0">
+        <v>12.00000000000014</v>
+      </c>
+      <c r="AS5" s="0">
+        <v>11.999999999999964</v>
+      </c>
+      <c r="AT5" s="0">
+        <v>11.999999999999961</v>
+      </c>
+      <c r="AU5" s="0">
+        <v>11.999999999999961</v>
+      </c>
+      <c r="AV5" s="0">
+        <v>11.999999999999963</v>
+      </c>
+      <c r="AW5" s="0">
+        <v>12.00000000000014</v>
+      </c>
+      <c r="AX5" s="0">
+        <v>11.999999999999979</v>
+      </c>
+      <c r="AY5" s="0">
+        <v>11.999999999999988</v>
+      </c>
+      <c r="AZ5" s="0">
+        <v>11.999999999999989</v>
+      </c>
+      <c r="BA5" s="0">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="BB5" s="0">
+        <v>12</v>
+      </c>
+      <c r="BC5" s="0">
+        <v>12</v>
+      </c>
+      <c r="BD5" s="0">
+        <v>11.999999999999998</v>
+      </c>
+      <c r="BE5" s="0">
+        <v>11.999999999999991</v>
+      </c>
+      <c r="BF5" s="0">
+        <v>11.999999999999977</v>
+      </c>
+      <c r="BG5" s="0">
+        <v>11.999999999999977</v>
+      </c>
+      <c r="BH5" s="0">
+        <v>12.00000000000014</v>
+      </c>
+      <c r="BI5" s="0">
+        <v>11.999999999999966</v>
+      </c>
+      <c r="BJ5" s="0">
+        <v>11.999999999999961</v>
+      </c>
+      <c r="BK5" s="0">
+        <v>11.999999999999963</v>
+      </c>
+      <c r="BL5" s="0">
+        <v>11.999999999999963</v>
+      </c>
+      <c r="BM5" s="0">
+        <v>12.000000000000133</v>
+      </c>
+      <c r="BN5" s="0">
+        <v>11.999999999999977</v>
+      </c>
+      <c r="BO5" s="0">
+        <v>1069.4834906938004</v>
+      </c>
+      <c r="BP5" s="0">
+        <v>220.04150053945534</v>
+      </c>
+      <c r="BQ5" s="0">
+        <v>218.67059556516259</v>
+      </c>
+      <c r="BR5" s="0">
+        <v>216.73621239544985</v>
+      </c>
+      <c r="BS5" s="0">
+        <v>214.33831427653766</v>
+      </c>
+      <c r="BT5" s="0">
+        <v>211.5866686988827</v>
+      </c>
+      <c r="BU5" s="0">
+        <v>208.59795838114115</v>
+      </c>
+      <c r="BV5" s="0">
+        <v>205.492536494202</v>
+      </c>
+      <c r="BW5" s="0">
+        <v>202.39077789384768</v>
+      </c>
+      <c r="BX5" s="0">
+        <v>199.40903756020634</v>
+      </c>
+      <c r="BY5" s="0">
+        <v>196.65531460217483</v>
+      </c>
+      <c r="BZ5" s="0">
+        <v>194.22482931160823</v>
+      </c>
+      <c r="CA5" s="0">
+        <v>192.19583336645107</v>
+      </c>
+      <c r="CB5" s="0">
+        <v>190.62605816984771</v>
+      </c>
+      <c r="CC5" s="0">
+        <v>189.55022685776115</v>
+      </c>
+      <c r="CD5" s="0">
+        <v>188.97898452385533</v>
+      </c>
+      <c r="CE5" s="0">
+        <v>188.89943749466934</v>
+      </c>
+      <c r="CF5" s="0">
+        <v>189.2772688078646</v>
+      </c>
+      <c r="CG5" s="0">
+        <v>190.06017160195645</v>
+      </c>
+      <c r="CH5" s="0">
+        <v>191.18217551533377</v>
+      </c>
+      <c r="CI5" s="0">
+        <v>192.56837142936365</v>
+      </c>
+      <c r="CJ5" s="0">
+        <v>194.13956975425489</v>
+      </c>
+      <c r="CK5" s="0">
+        <v>195.81652960519529</v>
+      </c>
+      <c r="CL5" s="0">
+        <v>197.52352997281832</v>
+      </c>
+      <c r="CM5" s="0">
+        <v>199.19118264244653</v>
+      </c>
+      <c r="CN5" s="0">
+        <v>200.75848731143668</v>
+      </c>
+      <c r="CO5" s="0">
+        <v>202.17419431496424</v>
+      </c>
+      <c r="CP5" s="0">
+        <v>203.39757266097621</v>
+      </c>
+      <c r="CQ5" s="0">
+        <v>204.39868900607462</v>
+      </c>
+      <c r="CR5" s="0">
+        <v>205.15829596052208</v>
+      </c>
+      <c r="CS5" s="0">
+        <v>205.66741335490937</v>
+      </c>
+      <c r="CT5" s="0">
+        <v>205.92666920832932</v>
+      </c>
+      <c r="CU5" s="0">
+        <v>205.94545137663934</v>
+      </c>
+      <c r="CV5" s="0">
+        <v>205.7409079371256</v>
+      </c>
+      <c r="CW5" s="0">
+        <v>205.33682499391418</v>
+      </c>
+      <c r="CX5" s="0">
+        <v>204.76240491165632</v>
+      </c>
+      <c r="CY5" s="0">
+        <v>204.05096584376372</v>
+      </c>
+      <c r="CZ5" s="0">
+        <v>203.238584467273</v>
+      </c>
+      <c r="DA5" s="0">
+        <v>202.36270754264655</v>
+      </c>
+      <c r="DB5" s="0">
+        <v>201.46076353302263</v>
+      </c>
+      <c r="DC5" s="0">
+        <v>200.56881201894839</v>
+      </c>
+      <c r="DD5" s="0">
+        <v>199.72027472714652</v>
+      </c>
+      <c r="DE5" s="0">
+        <v>198.9447961573027</v>
+      </c>
+      <c r="DF5" s="0">
+        <v>198.26728254553743</v>
+      </c>
+      <c r="DG5" s="0">
+        <v>197.70716405174113</v>
+      </c>
+      <c r="DH5" s="0">
+        <v>197.27791603199307</v>
+      </c>
+      <c r="DI5" s="0">
+        <v>196.98686137287498</v>
+      </c>
+      <c r="DJ5" s="0">
+        <v>196.83525840129619</v>
+      </c>
+      <c r="DK5" s="0">
+        <v>196.81865991912912</v>
+      </c>
+      <c r="DL5" s="0">
+        <v>196.92751092341001</v>
+      </c>
+      <c r="DM5" s="0">
+        <v>197.14793791001202</v>
+      </c>
+      <c r="DN5" s="0">
+        <v>197.46267304784803</v>
+      </c>
+      <c r="DO5" s="0">
+        <v>197.85205273582028</v>
+      </c>
+      <c r="DP5" s="0">
+        <v>198.29503189792285</v>
+      </c>
+      <c r="DQ5" s="0">
+        <v>198.77016179792264</v>
+      </c>
+      <c r="DR5" s="0">
+        <v>199.25648864931975</v>
+      </c>
+      <c r="DS5" s="0">
+        <v>199.7343412378936</v>
+      </c>
+      <c r="DT5" s="0">
+        <v>200.18598673875559</v>
+      </c>
+      <c r="DU5" s="0">
+        <v>200.5961438522765</v>
+      </c>
+      <c r="DV5" s="0">
+        <v>200.95235069223875</v>
+      </c>
+      <c r="DW5" s="0">
+        <v>201.24519131444973</v>
+      </c>
+      <c r="DX5" s="0">
+        <v>201.46838944942172</v>
+      </c>
+      <c r="DY5" s="0">
+        <v>201.6187811558585</v>
+      </c>
+      <c r="DZ5" s="0">
+        <v>201.69618008164682</v>
+      </c>
+      <c r="EA5" s="0">
+        <v>201.70315015121247</v>
       </c>
     </row>
     <row r="6">
@@ -370,52 +2194,394 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>67.5</v>
+        <v>78.75</v>
       </c>
       <c r="C6" s="0">
-        <v>37.498502200441926</v>
+        <v>33.750000000000028</v>
       </c>
       <c r="D6" s="0">
-        <v>14.998505839872088</v>
+        <v>22.499999999999968</v>
       </c>
       <c r="E6" s="0">
-        <v>-7.4945772311084173</v>
+        <v>11.250000000000016</v>
       </c>
       <c r="F6" s="0">
-        <v>-30.0037168527132</v>
+        <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>-52.509970977115259</v>
+        <v>-11.250000000000016</v>
       </c>
       <c r="H6" s="0">
-        <v>-75.000089196072338</v>
+        <v>-22.50000000000005</v>
       </c>
       <c r="I6" s="0">
-        <v>82.502362053236126</v>
+        <v>-33.749999999999943</v>
       </c>
       <c r="J6" s="0">
-        <v>60.006118550973746</v>
+        <v>-45</v>
       </c>
       <c r="K6" s="0">
-        <v>37.498502200441926</v>
+        <v>-56.250000000000028</v>
       </c>
       <c r="L6" s="0">
-        <v>14.998505839872088</v>
+        <v>-67.499999999999972</v>
       </c>
       <c r="M6" s="0">
-        <v>-7.4945772311084173</v>
+        <v>-78.749999999999972</v>
       </c>
       <c r="N6" s="0">
-        <v>-30.0037168527132</v>
+        <v>-90</v>
       </c>
       <c r="O6" s="0">
-        <v>-52.509970977115259</v>
+        <v>78.750000000000014</v>
       </c>
       <c r="P6" s="0">
-        <v>-75.000089196072338</v>
+        <v>67.499999999999986</v>
       </c>
       <c r="Q6" s="0">
-        <v>82.502362053236126</v>
+        <v>56.249999999999986</v>
+      </c>
+      <c r="R6" s="0">
+        <v>45.00000000000005</v>
+      </c>
+      <c r="S6" s="0">
+        <v>33.750000000000028</v>
+      </c>
+      <c r="T6" s="0">
+        <v>22.499999999999932</v>
+      </c>
+      <c r="U6" s="0">
+        <v>11.250000000000016</v>
+      </c>
+      <c r="V6" s="0">
+        <v>4.3474627869383538e-14</v>
+      </c>
+      <c r="W6" s="0">
+        <v>-11.250000000000016</v>
+      </c>
+      <c r="X6" s="0">
+        <v>-22.499999999999957</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>-33.749999999999979</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>-45.000000000000028</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>-56.250000000000028</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>-67.500000000000043</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>-78.749999999999929</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>-89.999999999999986</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>78.750000000000028</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>67.499999999999972</v>
+      </c>
+      <c r="AG6" s="0">
+        <v>56.250000000000078</v>
+      </c>
+      <c r="AH6" s="0">
+        <v>45.000000000000043</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>33.750000000000057</v>
+      </c>
+      <c r="AJ6" s="0">
+        <v>22.500000000000004</v>
+      </c>
+      <c r="AK6" s="0">
+        <v>11.249999999999931</v>
+      </c>
+      <c r="AL6" s="0">
+        <v>4.3474627869383538e-14</v>
+      </c>
+      <c r="AM6" s="0">
+        <v>-11.250000000000059</v>
+      </c>
+      <c r="AN6" s="0">
+        <v>-22.500000000000004</v>
+      </c>
+      <c r="AO6" s="0">
+        <v>-33.749999999999908</v>
+      </c>
+      <c r="AP6" s="0">
+        <v>-44.999999999999851</v>
+      </c>
+      <c r="AQ6" s="0">
+        <v>-56.249999999999815</v>
+      </c>
+      <c r="AR6" s="0">
+        <v>-67.500000000000327</v>
+      </c>
+      <c r="AS6" s="0">
+        <v>-78.749999999999986</v>
+      </c>
+      <c r="AT6" s="0">
+        <v>-89.999999999999986</v>
+      </c>
+      <c r="AU6" s="0">
+        <v>78.750000000000028</v>
+      </c>
+      <c r="AV6" s="0">
+        <v>67.500000000000028</v>
+      </c>
+      <c r="AW6" s="0">
+        <v>56.250000000000377</v>
+      </c>
+      <c r="AX6" s="0">
+        <v>44.999999999999872</v>
+      </c>
+      <c r="AY6" s="0">
+        <v>33.749999999999915</v>
+      </c>
+      <c r="AZ6" s="0">
+        <v>22.499999999999936</v>
+      </c>
+      <c r="BA6" s="0">
+        <v>11.250000000000018</v>
+      </c>
+      <c r="BB6" s="0">
+        <v>8.6949255738767076e-14</v>
+      </c>
+      <c r="BC6" s="0">
+        <v>-11.250000000000059</v>
+      </c>
+      <c r="BD6" s="0">
+        <v>-22.500000000000004</v>
+      </c>
+      <c r="BE6" s="0">
+        <v>-33.749999999999908</v>
+      </c>
+      <c r="BF6" s="0">
+        <v>-44.999999999999808</v>
+      </c>
+      <c r="BG6" s="0">
+        <v>-56.249999999999808</v>
+      </c>
+      <c r="BH6" s="0">
+        <v>-67.500000000000327</v>
+      </c>
+      <c r="BI6" s="0">
+        <v>-78.749999999999986</v>
+      </c>
+      <c r="BJ6" s="0">
+        <v>-89.999999999999972</v>
+      </c>
+      <c r="BK6" s="0">
+        <v>78.750000000000043</v>
+      </c>
+      <c r="BL6" s="0">
+        <v>67.500000000000043</v>
+      </c>
+      <c r="BM6" s="0">
+        <v>56.250000000000369</v>
+      </c>
+      <c r="BN6" s="0">
+        <v>44.999999999999872</v>
+      </c>
+      <c r="BO6" s="0">
+        <v>78.295410550318977</v>
+      </c>
+      <c r="BP6" s="0">
+        <v>-20.847652865834441</v>
+      </c>
+      <c r="BQ6" s="0">
+        <v>-31.133041539717482</v>
+      </c>
+      <c r="BR6" s="0">
+        <v>-41.525792235115262</v>
+      </c>
+      <c r="BS6" s="0">
+        <v>-52.046679424663978</v>
+      </c>
+      <c r="BT6" s="0">
+        <v>-62.713176520613146</v>
+      </c>
+      <c r="BU6" s="0">
+        <v>-73.538897269766125</v>
+      </c>
+      <c r="BV6" s="0">
+        <v>-84.532887559023123</v>
+      </c>
+      <c r="BW6" s="0">
+        <v>84.301160325832328</v>
+      </c>
+      <c r="BX6" s="0">
+        <v>72.965657711445601</v>
+      </c>
+      <c r="BY6" s="0">
+        <v>61.469681300146888</v>
+      </c>
+      <c r="BZ6" s="0">
+        <v>49.829171595222263</v>
+      </c>
+      <c r="CA6" s="0">
+        <v>38.066604757391936</v>
+      </c>
+      <c r="CB6" s="0">
+        <v>26.210034451722375</v>
+      </c>
+      <c r="CC6" s="0">
+        <v>14.291507274311055</v>
+      </c>
+      <c r="CD6" s="0">
+        <v>2.3449878595183824</v>
+      </c>
+      <c r="CE6" s="0">
+        <v>-9.5959519274520613</v>
+      </c>
+      <c r="CF6" s="0">
+        <v>-21.500363382880632</v>
+      </c>
+      <c r="CG6" s="0">
+        <v>-33.341772937801899</v>
+      </c>
+      <c r="CH6" s="0">
+        <v>-45.099448919687404</v>
+      </c>
+      <c r="CI6" s="0">
+        <v>-56.759005861814465</v>
+      </c>
+      <c r="CJ6" s="0">
+        <v>-68.312393410775741</v>
+      </c>
+      <c r="CK6" s="0">
+        <v>-79.757403076876855</v>
+      </c>
+      <c r="CL6" s="0">
+        <v>88.903137739535609</v>
+      </c>
+      <c r="CM6" s="0">
+        <v>77.662321910961694</v>
+      </c>
+      <c r="CN6" s="0">
+        <v>66.510139773867948</v>
+      </c>
+      <c r="CO6" s="0">
+        <v>55.434390952822056</v>
+      </c>
+      <c r="CP6" s="0">
+        <v>44.421484357165291</v>
+      </c>
+      <c r="CQ6" s="0">
+        <v>33.457110811909132</v>
+      </c>
+      <c r="CR6" s="0">
+        <v>22.526793247268689</v>
+      </c>
+      <c r="CS6" s="0">
+        <v>11.616330640602742</v>
+      </c>
+      <c r="CT6" s="0">
+        <v>0.7121562700162829</v>
+      </c>
+      <c r="CU6" s="0">
+        <v>-10.19836941682034</v>
+      </c>
+      <c r="CV6" s="0">
+        <v>-21.126714068316431</v>
+      </c>
+      <c r="CW6" s="0">
+        <v>-32.082964146354534</v>
+      </c>
+      <c r="CX6" s="0">
+        <v>-43.075643650225466</v>
+      </c>
+      <c r="CY6" s="0">
+        <v>-54.111558741825768</v>
+      </c>
+      <c r="CZ6" s="0">
+        <v>-65.195671165044416</v>
+      </c>
+      <c r="DA6" s="0">
+        <v>-76.331007576699179</v>
+      </c>
+      <c r="DB6" s="0">
+        <v>-87.518614886071077</v>
+      </c>
+      <c r="DC6" s="0">
+        <v>81.242427056274934</v>
+      </c>
+      <c r="DD6" s="0">
+        <v>69.954924996745646</v>
+      </c>
+      <c r="DE6" s="0">
+        <v>58.62341691760173</v>
+      </c>
+      <c r="DF6" s="0">
+        <v>47.253940191996122</v>
+      </c>
+      <c r="DG6" s="0">
+        <v>35.853728865288488</v>
+      </c>
+      <c r="DH6" s="0">
+        <v>24.430853478387913</v>
+      </c>
+      <c r="DI6" s="0">
+        <v>12.993823928516326</v>
+      </c>
+      <c r="DJ6" s="0">
+        <v>1.5511808683131372</v>
+      </c>
+      <c r="DK6" s="0">
+        <v>-9.8888969442727639</v>
+      </c>
+      <c r="DL6" s="0">
+        <v>-21.31894352750956</v>
+      </c>
+      <c r="DM6" s="0">
+        <v>-32.732493761247156</v>
+      </c>
+      <c r="DN6" s="0">
+        <v>-44.124294695156593</v>
+      </c>
+      <c r="DO6" s="0">
+        <v>-55.490434102023215</v>
+      </c>
+      <c r="DP6" s="0">
+        <v>-66.828387937544505</v>
+      </c>
+      <c r="DQ6" s="0">
+        <v>-78.13699460015539</v>
+      </c>
+      <c r="DR6" s="0">
+        <v>-89.416368114459914</v>
+      </c>
+      <c r="DS6" s="0">
+        <v>79.332235532678084</v>
+      </c>
+      <c r="DT6" s="0">
+        <v>68.106584438441743</v>
+      </c>
+      <c r="DU6" s="0">
+        <v>56.903655901641947</v>
+      </c>
+      <c r="DV6" s="0">
+        <v>45.719829293886484</v>
+      </c>
+      <c r="DW6" s="0">
+        <v>34.551077697165752</v>
+      </c>
+      <c r="DX6" s="0">
+        <v>23.393151600787732</v>
+      </c>
+      <c r="DY6" s="0">
+        <v>12.241749929898321</v>
+      </c>
+      <c r="DZ6" s="0">
+        <v>1.0926752330737071</v>
+      </c>
+      <c r="EA6" s="0">
+        <v>-10.05802903442191</v>
       </c>
     </row>
   </sheetData>
